--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="E2">
+        <v>6.992417114397731</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -437,26 +440,29 @@
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>1.910666127459315</v>
+        <v>2.651903832953884</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>1.052572528399653</v>
       </c>
       <c r="D4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E4">
-        <v>0.6492937867006665</v>
+        <v>2.396905458966625</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -468,29 +474,29 @@
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>0.2478029645461621</v>
+        <v>0.5356365903280924</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C6">
-        <v>0.1715429114845346</v>
+        <v>0.475547144596522</v>
       </c>
       <c r="D6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E6">
-        <v>0.8509156074281155</v>
+        <v>1.495774185788745</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -502,29 +508,29 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>4.590949402546851</v>
+        <v>1.805987045940682</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C8">
-        <v>0.8004663283405655</v>
+        <v>4.312104569761943</v>
       </c>
       <c r="D8">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E8">
-        <v>4.859624274446639</v>
+        <v>1.976172106438545</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -536,29 +542,29 @@
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>6.528307842404013</v>
+        <v>4.382531137514767</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C10">
-        <v>5.253783907501819</v>
+        <v>4.639864760432189</v>
       </c>
       <c r="D10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E10">
-        <v>4.695210483877932</v>
+        <v>4.074582884048139</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +576,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>2.728164648391185</v>
+        <v>1.988448192515935</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>3.522405026196918</v>
+        <v>1.418316910291906</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>1.881828690227838</v>
+        <v>3.247860853607465</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +610,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>5.01424274443687</v>
+        <v>3.166945525867848</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>1.656063945467268</v>
+        <v>3.520945360626571</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>3.853158971520942</v>
+        <v>2.547371915279606</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +644,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>4.963935273957154</v>
+        <v>3.684750195712683</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>4.06235252733802</v>
+        <v>3.285568146716344</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>2.990570386122382</v>
+        <v>3.38738696315446</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +678,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.973747512448343</v>
+        <v>2.9587404276884</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>3.05427116350534</v>
+        <v>2.441258738366514</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>2.306783028297055</v>
+        <v>3.091878630346012</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +712,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>2.420751168230217</v>
+        <v>2.661643377950096</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>2.305809238174006</v>
+        <v>2.480871685520603</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>2.547114352819779</v>
+        <v>2.296583397191387</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +746,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.434773703516147</v>
+        <v>2.433248629349549</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>2.509111342826809</v>
+        <v>2.83347664679956</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>3.218336425087465</v>
+        <v>2.560065157976177</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>3.220130655314013</v>
+        <v>3.071095202329288</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>3.315294106121924</v>
+        <v>2.781797072072023</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>3.297011904810243</v>
+        <v>3.248721852957415</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>3.699746550608474</v>
+        <v>3.078223990352669</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +814,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>3.698824700849923</v>
+        <v>3.296423324101938</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>3.296731496509198</v>
+        <v>3.149270133134596</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>2.926968792950002</v>
+        <v>3.009352983329028</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>2.848273197519613</v>
+        <v>2.994116795316071</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>2.217691096581187</v>
+        <v>2.939737488252936</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>2.783907785663198</v>
+        <v>2.867378798220366</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.798452007460738</v>
+        <v>2.769017518462746</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +882,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>2.689890129818551</v>
+        <v>2.763966172716947</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>2.861315725866587</v>
+        <v>2.689501145820206</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>2.561163765278374</v>
+        <v>2.967409274751098</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.637867031864882</v>
+        <v>2.671604274379558</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.829622026216927</v>
+        <v>2.997455747043043</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>1.841406700970061</v>
+        <v>1.790319754067715</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>2.136136986781323</v>
+        <v>1.627017245406992</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +950,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>2.136336055115096</v>
+        <v>1.856930494010856</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>1.790319754067715</v>
+        <v>1.980033360076905</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>2.133537709052757</v>
+        <v>2.063021041451907</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.133808466953946</v>
+        <v>2.08524086077817</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.829704993179227</v>
+        <v>2.197771900625956</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.134077088567254</v>
+        <v>2.339531676162721</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>2.829971696551858</v>
+        <v>3.195599391913406</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +1018,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>5.542003005885743</v>
+        <v>4.270817433327112</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>2.339531676162721</v>
+        <v>4.865769161659883</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>5.54163445616509</v>
+        <v>3.291462037299842</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>5.411659135174118</v>
+        <v>4.939003803830477</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>4.152343337882791</v>
+        <v>3.440178795466697</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>5.04459987483179</v>
+        <v>4.834496776263886</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>4.366242242642326</v>
+        <v>3.06038938938058</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1086,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>2.778727265168079</v>
+        <v>3.604316462518464</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>4.834496776263886</v>
+        <v>3.332544669973525</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>3.492022830615338</v>
+        <v>3.789179157493971</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>3.171701472859723</v>
+        <v>2.93530792557688</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>3.313336685638868</v>
+        <v>3.215749572764803</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>2.824943501366195</v>
+        <v>2.798216547494237</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>3.591136243562021</v>
+        <v>2.721520966738655</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1154,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>3.285431995518517</v>
+        <v>2.098908173995873</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>2.798216547494237</v>
+        <v>1.888626610265987</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>1.779426293060404</v>
+        <v>2.949781091571957</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.785761317689727</v>
+        <v>1.635353376270698</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>2.432837764269657</v>
+        <v>2.328770194687713</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.580512425878888</v>
+        <v>1.530879676868468</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>2.455689670679972</v>
+        <v>1.713178787950698</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1222,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>2.125082674338974</v>
+        <v>1.874466487556892</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>1.530879676868468</v>
+        <v>1.966591496003445</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>2.103671369075166</v>
+        <v>2.005435469818684</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>2.041299972273869</v>
+        <v>1.984020855913604</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>2.66908700341888</v>
+        <v>1.88544721086894</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>2.057287156976417</v>
+        <v>2.060859685319461</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>3.10450669425526</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>2.060859685319461</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>3.217185105987364</v>
+        <v>2.141985433296578</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>5.896808312953783</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>6.992417114397731</v>
+        <v>7.318442086255605</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>6.056254825277896</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>2.651903832953884</v>
+        <v>4.566338461218011</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>7.441962824572235</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>1.052572528399653</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>2.396905458966625</v>
+        <v>8.262942840582955</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>0.1715429114845346</v>
+        <v>8.604123301398037</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>0.5356365903280924</v>
+        <v>8.260999835306727</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>6.277541464866987</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>0.475547144596522</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>1.495774185788745</v>
+        <v>7.915558093865038</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.8004663283405655</v>
+        <v>5.436647924209592</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>1.805987045940682</v>
+        <v>4.862860110364875</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>6.535114773304773</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>4.312104569761943</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>1.976172106438545</v>
+        <v>6.402044794134309</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>5.253783907501819</v>
+        <v>6.334380382529425</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>4.382531137514767</v>
+        <v>5.829578861489648</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>5.12051970717502</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>4.639864760432189</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>4.074582884048139</v>
+        <v>5.160655543917292</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>3.522405026196918</v>
+        <v>3.88993859232436</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.988448192515935</v>
+        <v>3.4300351921007</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>3.65682115264816</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>1.418316910291906</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>3.247860853607465</v>
+        <v>3.62442670409151</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>1.656063945467268</v>
+        <v>2.513767348245044</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>3.166945525867848</v>
+        <v>2.479992751939486</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>2.943878639034381</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>3.520945360626571</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>2.547371915279606</v>
+        <v>3.771815305047821</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>4.06235252733802</v>
+        <v>2.723916849952834</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>3.684750195712683</v>
+        <v>2.551173534479334</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>1.172679597477866</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>3.285568146716344</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>3.38738696315446</v>
+        <v>1.204704113773114</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>3.05427116350534</v>
+        <v>1.326505206336948</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>2.9587404276884</v>
+        <v>1.211929054838756</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>2.961845079861303</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>2.441258738366514</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>3.091878630346012</v>
+        <v>2.562199564969392</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>2.305809238174006</v>
+        <v>2.321003614014883</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>2.661643377950096</v>
+        <v>2.610201636760778</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>2.508469427909898</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>2.480871685520603</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>2.296583397191387</v>
+        <v>2.632055757778851</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>2.509111342826809</v>
+        <v>2.468891199411116</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.433248629349549</v>
+        <v>2.593292206016984</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>3.523703831572056</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>2.83347664679956</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>2.560065157976177</v>
+        <v>3.331068508781954</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>3.071095202329288</v>
+        <v>2.442951431721241</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.781797072072023</v>
+        <v>2.874490643722805</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>3.248721852957415</v>
+        <v>3.133596157287766</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>3.078223990352669</v>
+        <v>3.419422858788335</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>3.296731496509198</v>
+        <v>1.273091634877033</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>3.296423324101938</v>
+        <v>1.947147525128035</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>1.178605266817589</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>3.149270133134596</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>3.009352983329028</v>
+        <v>1.467147844249106</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>2.994116795316071</v>
+        <v>1.388614840712377</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>2.939737488252936</v>
+        <v>1.965204165904111</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>2.867378798220366</v>
+        <v>0.08486825492834971</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>2.769017518462746</v>
+        <v>0.9311475558545057</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>2.861315725866587</v>
+        <v>2.983246785467752</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>2.763966172716947</v>
+        <v>2.844177684788551</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>3.047037961814492</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>2.689501145820206</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>2.967409274751098</v>
+        <v>2.757054249287738</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.671604274379558</v>
+        <v>3.192446966735796</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.997455747043043</v>
+        <v>2.739953120486138</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>1.790319754067715</v>
+        <v>2.405224065057476</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>1.627017245406992</v>
+        <v>2.152035263856344</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>1.790319754067715</v>
+        <v>-0.4891791466461126</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>1.856930494010856</v>
+        <v>0.6596954352570572</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-0.2228847697281378</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>1.980033360076905</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>2.063021041451907</v>
+        <v>2.031388171904314</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.08524086077817</v>
+        <v>2.00987424531256</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.197771900625956</v>
+        <v>1.446144849547082</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.339531676162721</v>
+        <v>-0.678826357714013</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>3.195599391913406</v>
+        <v>0.02414656897629097</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>2.339531676162721</v>
+        <v>-0.7941560676977599</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>4.270817433327112</v>
+        <v>1.553668892952742</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>-1.165854108406617</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>4.865769161659883</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>3.291462037299842</v>
+        <v>2.209187654930855</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>4.939003803830477</v>
+        <v>3.122586570118835</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>3.440178795466697</v>
+        <v>1.070586793467498</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>4.834496776263886</v>
+        <v>0.7010162698181555</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>3.06038938938058</v>
+        <v>-0.6730402944081559</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>4.834496776263886</v>
+        <v>2.34069710769782</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>3.604316462518464</v>
+        <v>1.423433561452137</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>2.501311189006916</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>3.332544669973525</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>3.789179157493971</v>
+        <v>2.819423640661167</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>2.93530792557688</v>
+        <v>2.639029809913129</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>3.215749572764803</v>
+        <v>1.61912427117199</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>2.798216547494237</v>
+        <v>2.158153176293576</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>2.721520966738655</v>
+        <v>1.298013848993262</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>2.798216547494237</v>
+        <v>0.9259311313598806</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>2.098908173995873</v>
+        <v>1.321448002249337</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>0.6753076481029074</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>1.888626610265987</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>2.949781091571957</v>
+        <v>0.6583865490665364</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.635353376270698</v>
+        <v>1.29262043481877</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>2.328770194687713</v>
+        <v>1.577641784671369</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>1.530879676868468</v>
+        <v>-0.1645072558042915</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.713178787950698</v>
+        <v>0.1619933518385297</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>1.530879676868468</v>
+        <v>1.935025917091848</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.874466487556892</v>
+        <v>1.814429727910216</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>2.039329803030121</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>1.966591496003445</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>2.005435469818684</v>
+        <v>2.453497774623137</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>1.984020855913604</v>
+        <v>1.562469275846001</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>1.88544721086894</v>
+        <v>1.276308453105246</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>2.060859685319461</v>
+        <v>3.131832690451031</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>2.141985433296578</v>
+        <v>2.199676451050503</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>2.43119486791763</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>2.795512766421537</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-0.4891791466461126</v>
+        <v>-0.618977527279696</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>0.6596954352570572</v>
+        <v>0.1082486211169353</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>2.031388171904314</v>
+        <v>1.741559576439178</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.00987424531256</v>
+        <v>1.792373617242249</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>1.446144849547082</v>
+        <v>1.512631895540539</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.678826357714013</v>
+        <v>-0.9722867993663398</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>0.02414656897629097</v>
+        <v>-0.1151106897824938</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.7941560676977599</v>
+        <v>-1.169239269654421</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.553668892952742</v>
+        <v>-0.08704962334622479</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>2.209187654930855</v>
+        <v>0.6926065284462046</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>3.122586570118835</v>
+        <v>2.138474224004239</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.070586793467498</v>
+        <v>0.6111028871791158</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>0.7010162698181555</v>
+        <v>0.1776648540293913</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-0.6730402944081559</v>
+        <v>-1.134429800434078</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>2.34069710769782</v>
+        <v>2.24006960102876</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.423433561452137</v>
+        <v>0.4012493484190971</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>2.819423640661167</v>
+        <v>2.055357398179147</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>2.639029809913129</v>
+        <v>2.4841157036257</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.61912427117199</v>
+        <v>1.649971980070997</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>2.158153176293576</v>
+        <v>2.217384308289683</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.298013848993262</v>
+        <v>1.307306144161835</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.9259311313598806</v>
+        <v>0.8849036736220839</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.321448002249337</v>
+        <v>0.455283828433517</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.6583865490665364</v>
+        <v>0.9064937165318643</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>1.29262043481877</v>
+        <v>1.144003037854291</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>1.577641784671369</v>
+        <v>1.636991574405333</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.1645072558042915</v>
+        <v>-0.1883299148263573</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.1619933518385297</v>
+        <v>0.4536295996834916</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>1.935025917091848</v>
+        <v>1.978716901346389</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.814429727910216</v>
+        <v>1.861561193014372</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>2.453497774623137</v>
+        <v>2.227147006388908</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>1.562469275846001</v>
+        <v>1.42158706675215</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>1.276308453105246</v>
+        <v>1.392799823427304</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>3.131832690451031</v>
+        <v>3.083905204716286</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>2.199676451050503</v>
+        <v>2.197852508472353</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.43119486791763</v>
+        <v>2.329506126295722</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>2.795512766421537</v>
+        <v>1.886495146159572</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>5.896808312953783</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>7.318442086255605</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>6.056254825277896</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>4.566338461218011</v>
+        <v>4.566338461218034</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>7.441962824572235</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>8.262942840582955</v>
+        <v>8.262942840582976</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +462,13 @@
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>8.604123301398037</v>
+        <v>8.604123301398015</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>8.260999835306727</v>
+        <v>8.260999835306748</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +479,13 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>6.277541464866987</v>
+        <v>6.277541464866965</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6">
-        <v>7.915558093865038</v>
+        <v>7.915558093865016</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,7 +502,7 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>4.862860110364875</v>
+        <v>4.862860110364853</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,7 +513,7 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>6.535114773304773</v>
+        <v>6.535114773304795</v>
       </c>
       <c r="D8">
         <v>2011</v>
@@ -542,7 +530,7 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>6.334380382529425</v>
+        <v>6.334380382529448</v>
       </c>
       <c r="D9">
         <v>2012</v>
@@ -576,13 +564,13 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>3.88993859232436</v>
+        <v>3.889938592324382</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>3.4300351921007</v>
+        <v>3.430035192100678</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -599,7 +587,7 @@
         <v>2013</v>
       </c>
       <c r="E12">
-        <v>3.62442670409151</v>
+        <v>3.624426704091555</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,7 +598,7 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>2.513767348245044</v>
+        <v>2.513767348245066</v>
       </c>
       <c r="D13">
         <v>2014</v>
@@ -633,7 +621,7 @@
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>3.771815305047821</v>
+        <v>3.771815305047843</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -650,7 +638,7 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>2.551173534479334</v>
+        <v>2.551173534479356</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -701,7 +689,7 @@
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>2.562199564969392</v>
+        <v>2.56219956496937</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,7 +700,7 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>2.321003614014883</v>
+        <v>2.321003614014905</v>
       </c>
       <c r="D19">
         <v>2017</v>
@@ -729,13 +717,13 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>2.508469427909898</v>
+        <v>2.508469427909921</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>2.632055757778851</v>
+        <v>2.632055757778873</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -786,7 +774,7 @@
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.874490643722805</v>
+        <v>2.874490643722782</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -820,7 +808,7 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.947147525128035</v>
+        <v>1.947147525128057</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -837,7 +825,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>1.467147844249106</v>
+        <v>1.467147844249128</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,7 +836,7 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.388614840712377</v>
+        <v>1.388614840712399</v>
       </c>
       <c r="D27">
         <v>2020</v>
@@ -871,7 +859,7 @@
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>0.9311475558545057</v>
+        <v>0.9311475558545279</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,7 +870,7 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>2.983246785467752</v>
+        <v>2.983246785467775</v>
       </c>
       <c r="D29">
         <v>2020</v>
@@ -899,13 +887,13 @@
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>3.047037961814492</v>
+        <v>3.047037961814514</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>2.757054249287738</v>
+        <v>2.75705424928776</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -939,7 +927,7 @@
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>2.152035263856344</v>
+        <v>2.152035263856322</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -956,7 +944,7 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>0.1082486211169353</v>
+        <v>0.1082486211169131</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +955,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-0.2228847697281378</v>
+        <v>-0.22288476972816</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>1.741559576439178</v>
+        <v>1.7415595764392</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1007,7 +995,7 @@
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-0.1151106897824938</v>
+        <v>-0.1151106897825049</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1006,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.169239269654421</v>
+        <v>-1.169239269654432</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-0.08704962334622479</v>
+        <v>-0.08704962334619148</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,7 +1023,7 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>-1.165854108406617</v>
+        <v>-1.165854108406639</v>
       </c>
       <c r="D38">
         <v>2022</v>
@@ -1058,7 +1046,7 @@
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.6111028871791158</v>
+        <v>0.611102887179138</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1086,7 +1074,7 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>2.24006960102876</v>
+        <v>2.240069601028782</v>
       </c>
       <c r="D41">
         <v>2023</v>
@@ -1109,7 +1097,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>2.055357398179147</v>
+        <v>2.055357398179125</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1126,7 +1114,7 @@
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.649971980070997</v>
+        <v>1.649971980071019</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1154,13 +1142,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>0.8849036736220839</v>
+        <v>0.8849036736221061</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.455283828433517</v>
+        <v>0.4552838284335392</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1165,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.9064937165318643</v>
+        <v>0.9064937165318865</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1205,7 +1193,7 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.1883299148263573</v>
+        <v>-0.1883299148263795</v>
       </c>
       <c r="D48">
         <v>2025</v>
@@ -1222,13 +1210,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>1.978716901346389</v>
+        <v>1.978716901346367</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.861561193014372</v>
+        <v>1.861561193014349</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1239,7 +1227,7 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>2.039329803030121</v>
+        <v>2.039329803030099</v>
       </c>
       <c r="D50">
         <v>2025</v>
@@ -1273,7 +1261,7 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>3.083905204716286</v>
+        <v>3.083905204716264</v>
       </c>
       <c r="D52">
         <v>2026</v>
@@ -1290,13 +1278,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.329506126295722</v>
+        <v>2.3295061262957</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>1.886495146159572</v>
+        <v>1.88649514615955</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>1.88649514615955</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>2.46481303148316</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>2.928470412166684</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
